--- a/src/main/java/resources/excelsheet/writedata.xlsx
+++ b/src/main/java/resources/excelsheet/writedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Number</t>
   </si>
@@ -43,12 +43,6 @@
     <t>secret_sauce</t>
   </si>
   <si>
-    <t>Sowmya</t>
-  </si>
-  <si>
-    <t>Venkateshwaran</t>
-  </si>
-  <si>
     <t>Arun</t>
   </si>
   <si>
@@ -56,16 +50,12 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>SoftwareTestingMaterial.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,19 +394,19 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.109375"/>
-    <col min="2" max="2" customWidth="true" width="14.77734375"/>
-    <col min="3" max="3" customWidth="true" width="13.0"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125"/>
-    <col min="5" max="5" customWidth="true" width="16.6640625"/>
-    <col min="6" max="6" customWidth="true" width="13.88671875"/>
-    <col min="7" max="7" customWidth="true" width="14.33203125"/>
-    <col min="8" max="8" customWidth="true" width="20.109375"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -442,12 +432,30 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>621700</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -461,10 +469,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>621700</v>

--- a/src/main/java/resources/excelsheet/writedata.xlsx
+++ b/src/main/java/resources/excelsheet/writedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Number</t>
   </si>
@@ -50,12 +50,28 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,9 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -394,19 +413,19 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.109375"/>
+    <col min="2" max="2" customWidth="true" width="14.77734375"/>
+    <col min="3" max="3" customWidth="true" width="13.0"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625"/>
+    <col min="6" max="6" customWidth="true" width="13.88671875"/>
+    <col min="7" max="7" customWidth="true" width="14.33203125"/>
+    <col min="8" max="8" customWidth="true" width="20.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -436,8 +455,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -454,13 +473,16 @@
       <c r="F2" s="1">
         <v>621700</v>
       </c>
-      <c r="G2" s="1">
-        <v>3</v>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -477,8 +499,11 @@
       <c r="F3" s="1">
         <v>621700</v>
       </c>
-      <c r="G3" s="1">
-        <v>3</v>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/resources/excelsheet/writedata.xlsx
+++ b/src/main/java/resources/excelsheet/writedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Number</t>
   </si>
@@ -71,7 +71,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,19 +412,19 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.109375"/>
-    <col min="2" max="2" customWidth="true" width="14.77734375"/>
-    <col min="3" max="3" customWidth="true" width="13.0"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125"/>
-    <col min="5" max="5" customWidth="true" width="16.6640625"/>
-    <col min="6" max="6" customWidth="true" width="13.88671875"/>
-    <col min="7" max="7" customWidth="true" width="14.33203125"/>
-    <col min="8" max="8" customWidth="true" width="20.109375"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -503,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/resources/excelsheet/writedata.xlsx
+++ b/src/main/java/resources/excelsheet/writedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>Number</t>
   </si>
